--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N2">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O2">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P2">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q2">
-        <v>14.20488007901478</v>
+        <v>1.909017520116</v>
       </c>
       <c r="R2">
-        <v>127.843920711133</v>
+        <v>17.181157681044</v>
       </c>
       <c r="S2">
-        <v>0.001303737032974999</v>
+        <v>0.0001867606403848452</v>
       </c>
       <c r="T2">
-        <v>0.001303737032974999</v>
+        <v>0.0001867606403848452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O3">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P3">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q3">
-        <v>73.48163305128068</v>
+        <v>16.958279743608</v>
       </c>
       <c r="R3">
-        <v>661.334697461526</v>
+        <v>152.624517692472</v>
       </c>
       <c r="S3">
-        <v>0.006744212250968813</v>
+        <v>0.001659041444810381</v>
       </c>
       <c r="T3">
-        <v>0.006744212250968815</v>
+        <v>0.001659041444810381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O4">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P4">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q4">
-        <v>685.4793947175069</v>
+        <v>158.196692852296</v>
       </c>
       <c r="R4">
-        <v>6169.314552457562</v>
+        <v>1423.770235670664</v>
       </c>
       <c r="S4">
-        <v>0.06291393290639347</v>
+        <v>0.01547650315019853</v>
       </c>
       <c r="T4">
-        <v>0.06291393290639348</v>
+        <v>0.01547650315019854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N5">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O5">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P5">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q5">
-        <v>181.5432870887904</v>
+        <v>105.718146813733</v>
       </c>
       <c r="R5">
-        <v>1633.889583799113</v>
+        <v>951.4633213235969</v>
       </c>
       <c r="S5">
-        <v>0.01666221081410805</v>
+        <v>0.01034248695529632</v>
       </c>
       <c r="T5">
-        <v>0.01666221081410805</v>
+        <v>0.01034248695529632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O6">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P6">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q6">
         <v>939.1207198214541</v>
@@ -818,10 +818,10 @@
         <v>8452.086478393087</v>
       </c>
       <c r="S6">
-        <v>0.08619336833924809</v>
+        <v>0.09187489647652583</v>
       </c>
       <c r="T6">
-        <v>0.08619336833924811</v>
+        <v>0.09187489647652584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O7">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P7">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q7">
         <v>8760.664071532365</v>
@@ -880,10 +880,10 @@
         <v>78845.97664379128</v>
       </c>
       <c r="S7">
-        <v>0.8040618519816792</v>
+        <v>0.8570624496397867</v>
       </c>
       <c r="T7">
-        <v>0.8040618519816793</v>
+        <v>0.8570624496397869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5253496666666667</v>
+        <v>0.305927</v>
       </c>
       <c r="N8">
-        <v>1.576049</v>
+        <v>0.917781</v>
       </c>
       <c r="O8">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="P8">
-        <v>0.01837235699974889</v>
+        <v>0.01078151192043695</v>
       </c>
       <c r="Q8">
-        <v>4.428035048953778</v>
+        <v>2.578578734077333</v>
       </c>
       <c r="R8">
-        <v>39.85231544058401</v>
+        <v>23.207208606696</v>
       </c>
       <c r="S8">
-        <v>0.0004064091526658427</v>
+        <v>0.0002522643247557851</v>
       </c>
       <c r="T8">
-        <v>0.0004064091526658428</v>
+        <v>0.0002522643247557852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>8.152878000000001</v>
       </c>
       <c r="O9">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546363</v>
       </c>
       <c r="P9">
-        <v>0.09503992908304168</v>
+        <v>0.09577486496546361</v>
       </c>
       <c r="Q9">
-        <v>22.90615934773868</v>
+        <v>22.90615934773867</v>
       </c>
       <c r="R9">
-        <v>206.1554341296481</v>
+        <v>206.155434129648</v>
       </c>
       <c r="S9">
-        <v>0.002102348492824773</v>
+        <v>0.002240927044127408</v>
       </c>
       <c r="T9">
-        <v>0.002102348492824774</v>
+        <v>0.002240927044127408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>76.05478600000001</v>
       </c>
       <c r="O10">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="P10">
-        <v>0.8865877139172095</v>
+        <v>0.8934436231140994</v>
       </c>
       <c r="Q10">
         <v>213.6819718477529</v>
       </c>
       <c r="R10">
-        <v>1923.137746629777</v>
+        <v>1923.137746629776</v>
       </c>
       <c r="S10">
-        <v>0.01961192902913678</v>
+        <v>0.02090467032411408</v>
       </c>
       <c r="T10">
-        <v>0.01961192902913679</v>
+        <v>0.02090467032411408</v>
       </c>
     </row>
   </sheetData>
